--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mace/Documents/scripts/migrate-tcl-evidences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F9515F-968D-0D42-A986-63EA7F75A863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BA6F2A-43A6-F640-9315-4C4531E04F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{BDF3027E-B7E6-0C40-A7C0-A6B5D900D3B3}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A2:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mace/Documents/scripts/migrate-tcl-evidences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA214828-A280-7248-959D-28DD3E784B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E93CAA-D27E-214B-8E9A-5761B24E06D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{BDF3027E-B7E6-0C40-A7C0-A6B5D900D3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="copy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="95">
   <si>
     <t>PAC-162</t>
   </si>
@@ -768,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9863C7-657D-E04F-A073-E4F4901CAD20}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2294,4 +2295,1536 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040CAB91-6FED-204C-A24B-7045ED364711}">
+  <dimension ref="A1:D108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" s="6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mace/Documents/scripts/migrate-tcl-evidences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E93CAA-D27E-214B-8E9A-5761B24E06D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95156C9C-EF3E-394A-8FAE-FD8F98F23203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{BDF3027E-B7E6-0C40-A7C0-A6B5D900D3B3}"/>
   </bookViews>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9863C7-657D-E04F-A073-E4F4901CAD20}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
